--- a/Sprint-1/Gustavo de Araujo, Grupo 6 - 1º Sprint.xlsx
+++ b/Sprint-1/Gustavo de Araujo, Grupo 6 - 1º Sprint.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Casos de teste" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Relatórios de bug" sheetId="2" r:id="rId5"/>
+    <sheet name="Casos de teste" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatórios de bug" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="/pq0GUfU3amO9+KPOpTEq9OivR7Lugk5sasWmrqihV4="/>
@@ -21,10 +24,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Nome do caso de teste</t>
     </r>
@@ -32,10 +35,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Pré-condição</t>
     </r>
@@ -43,10 +46,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Etapa</t>
     </r>
@@ -54,10 +57,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Descrição da etapa</t>
     </r>
@@ -65,10 +68,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Resultado esperado</t>
     </r>
@@ -76,10 +79,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Status</t>
     </r>
@@ -87,10 +90,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>ID do bug</t>
     </r>
@@ -98,9 +101,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-1</t>
     </r>
@@ -108,9 +111,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Rolagem do mapa</t>
     </r>
@@ -121,9 +124,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique o mapa e role para cima e para baixo.</t>
     </r>
@@ -131,9 +134,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O mapa se move. Todos os objetos são renderizados conforme o design.</t>
     </r>
@@ -144,9 +147,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-2</t>
     </r>
@@ -154,9 +157,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Zoom no mapa</t>
     </r>
@@ -167,9 +170,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -186,9 +189,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no botão de mais (+).</t>
     </r>
@@ -196,9 +199,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O nível de zoom muda em um valor. Todos os objetos são renderizados conforme o design.</t>
     </r>
@@ -206,9 +209,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-3</t>
     </r>
@@ -216,9 +219,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Objetos não clicáveis</t>
     </r>
@@ -226,9 +229,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -236,9 +239,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no nome do local presente no mapa (exemplo: Hollywood).</t>
     </r>
@@ -246,9 +249,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Nada acontece. Os cabeçalhos de área não podem ser selecionados.</t>
     </r>
@@ -265,9 +268,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-4</t>
     </r>
@@ -275,9 +278,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Selecionar o campo "De"</t>
     </r>
@@ -285,9 +288,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -295,9 +298,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no campo "De".</t>
     </r>
@@ -311,9 +314,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-5</t>
     </r>
@@ -321,9 +324,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Busca por objeto</t>
     </r>
@@ -331,9 +334,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -341,9 +344,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no campo "Para".</t>
     </r>
@@ -351,9 +354,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O cursor pisca.</t>
     </r>
@@ -364,9 +367,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Digite "Subway".</t>
     </r>
@@ -377,9 +380,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-6</t>
     </r>
@@ -387,9 +390,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Preenchimento do campo "De"</t>
     </r>
@@ -397,9 +400,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -407,9 +410,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no campo "De".</t>
     </r>
@@ -420,9 +423,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O campo "De" está vazio</t>
     </r>
@@ -436,9 +439,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-7</t>
     </r>
@@ -446,9 +449,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Preenchimento do campo "Para"</t>
     </r>
@@ -456,9 +459,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -466,9 +469,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no campo "Para".</t>
     </r>
@@ -476,9 +479,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O campo "Para" é selecionado. O cursor pisca. O campo de pesquisa fica vazio.</t>
     </r>
@@ -489,9 +492,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O campo "Para" está vazio</t>
     </r>
@@ -502,9 +505,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-8</t>
     </r>
@@ -512,9 +515,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Limpar os campos</t>
     </r>
@@ -522,9 +525,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -532,9 +535,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique na cruz no campo "De".</t>
     </r>
@@ -542,9 +545,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O campo está vazio. O endereço inserido anteriormente é removido do campo.</t>
     </r>
@@ -552,9 +555,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Os campos "De" e "Para" estão preenchidos</t>
     </r>
@@ -562,9 +565,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique na cruz no campo "Para".</t>
     </r>
@@ -572,9 +575,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O campo está vazio. O endereço inserido anteriormente é removido do campo.</t>
     </r>
@@ -582,9 +585,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-9</t>
     </r>
@@ -592,9 +595,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Observar objetos 3D</t>
     </r>
@@ -602,9 +605,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -612,9 +615,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Amplie um objeto 3D (exemplo: Aeroporto Internacional de Los Angeles, LAX).</t>
     </r>
@@ -622,9 +625,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O objeto é mapeado como um objeto 3D.</t>
     </r>
@@ -632,9 +635,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-10</t>
     </r>
@@ -642,9 +645,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Modo de visualização em tela cheia</t>
     </r>
@@ -652,9 +655,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -662,9 +665,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no botão de modo de visualização em tela cheia.</t>
     </r>
@@ -678,9 +681,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O modo de visualização em tela cheia não está ativado</t>
     </r>
@@ -691,9 +694,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O modo de visualização em tela cheia é desativado e as abas do navegador voltam a aparecer. Todos os objetos da interface do mapa estão no lugar. O nível de zoom não muda.</t>
     </r>
@@ -701,9 +704,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-11</t>
     </r>
@@ -711,9 +714,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Modo de renderização</t>
     </r>
@@ -721,9 +724,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -731,9 +734,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Aproxime o cursor do botão do modo Mapa.</t>
     </r>
@@ -741,9 +744,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O botão mudou de cor. A opção Relevo está aberta na lista.</t>
     </r>
@@ -754,9 +757,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>2a</t>
     </r>
@@ -764,9 +767,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Aproxime o cursor do botão do modo Relevo.</t>
     </r>
@@ -777,9 +780,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>3a</t>
     </r>
@@ -787,9 +790,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no botão do modo Relevo.</t>
     </r>
@@ -797,9 +800,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O campo está preenchido. O mapa renderizado em modo Relevo corresponde ao design.</t>
     </r>
@@ -807,9 +810,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>2b</t>
     </r>
@@ -823,9 +826,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>3b</t>
     </r>
@@ -833,9 +836,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no botão Satélite.</t>
     </r>
@@ -846,9 +849,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-12</t>
     </r>
@@ -856,9 +859,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Renderização de objetos</t>
     </r>
@@ -866,9 +869,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -876,9 +879,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>1a</t>
     </r>
@@ -886,9 +889,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Dê zoom em um prédio.</t>
     </r>
@@ -896,9 +899,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O prédio é renderizado conforme o design.</t>
     </r>
@@ -906,9 +909,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>1b</t>
     </r>
@@ -916,9 +919,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Aumente o zoom em uma estação de Metrô, LA (exemplo: Estação Central de Long Beach).</t>
     </r>
@@ -926,9 +929,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O ícone do metrô é exibido.</t>
     </r>
@@ -936,9 +939,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>1c</t>
     </r>
@@ -946,9 +949,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Aumente o zoom em um ponto de referência (exemplo: Museu de Arte do Condado de Los Angeles).</t>
     </r>
@@ -956,9 +959,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O ícone do ponto de referência é exibido.</t>
     </r>
@@ -966,9 +969,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>1d</t>
     </r>
@@ -976,9 +979,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Aumente o zoom em um parque da cidade (exemplo: Parque Natural Vista Hermosa).</t>
     </r>
@@ -986,9 +989,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O ícone do parque é exibido.</t>
     </r>
@@ -996,9 +999,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-13</t>
     </r>
@@ -1006,9 +1009,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Visualização de informações dos objetos</t>
     </r>
@@ -1016,9 +1019,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique em um lugar no mapa (exemplo: Estádio Dodger).</t>
     </r>
@@ -1029,9 +1032,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique na cruz na visualização de informações.</t>
     </r>
@@ -1039,9 +1042,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>A visualização de informações está fechada. Não há artefatos no mapa.</t>
     </r>
@@ -1049,9 +1052,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-14</t>
     </r>
@@ -1059,9 +1062,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Modo street view</t>
     </r>
@@ -1072,9 +1075,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Role o mapa para a área do Estádio Dodger.</t>
     </r>
@@ -1082,9 +1085,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>A área do Estádio Dodger foi ampliada.</t>
     </r>
@@ -1092,9 +1095,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Defina o nível máximo de zoom.</t>
     </r>
@@ -1102,9 +1105,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O nível de zoom está no máximo.</t>
     </r>
@@ -1112,9 +1115,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique 5 vezes no ícone de menos.</t>
     </r>
@@ -1122,9 +1125,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O nível de zoom muda.</t>
     </r>
@@ -1132,9 +1135,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Arraste o ícone do modo Street View e coloque-o em qualquer rua.</t>
     </r>
@@ -1142,9 +1145,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O modo Street View está ativado.</t>
     </r>
@@ -1152,9 +1155,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Role a imagem.</t>
     </r>
@@ -1162,9 +1165,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>A imagem rola 360 graus.</t>
     </r>
@@ -1172,9 +1175,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique na pequena seta cinza localizada no retângulo preto (no canto superior esquerdo do mapa).</t>
     </r>
@@ -1182,9 +1185,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>O modo Street View está desativado.</t>
     </r>
@@ -1192,9 +1195,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>CASO-15</t>
     </r>
@@ -1202,9 +1205,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Informações do aplicativo</t>
     </r>
@@ -1212,9 +1215,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Abra o site do Urban.Routes</t>
     </r>
@@ -1222,9 +1225,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Clique no logotipo do Urban.Routes.</t>
     </r>
@@ -1238,10 +1241,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>ID do bug</t>
     </r>
@@ -1249,10 +1252,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Título</t>
     </r>
@@ -1260,10 +1263,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Etapas para reprodução</t>
     </r>
@@ -1271,10 +1274,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Resultado esperado</t>
     </r>
@@ -1282,10 +1285,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Resultado real</t>
     </r>
@@ -1293,10 +1296,10 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Prioridade</t>
     </r>
@@ -1419,35 +1422,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1457,7 +1462,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1467,90 +1472,109 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1740,36 +1764,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.25"/>
-    <col customWidth="1" min="2" max="2" width="17.5"/>
-    <col customWidth="1" min="3" max="3" width="20.25"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
-    <col customWidth="1" min="5" max="5" width="16.5"/>
-    <col customWidth="1" min="6" max="6" width="18.13"/>
-    <col customWidth="1" min="7" max="26" width="11.0"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="str">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A1" s="1">
         <f>K3</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1793,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="51">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1804,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1817,18 +1843,18 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="76.5">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -1836,16 +1862,19 @@
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="63.75">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -1853,19 +1882,21 @@
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="63.75">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>25</v>
@@ -1873,16 +1904,19 @@
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="63.75">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>28</v>
@@ -1890,8 +1924,10 @@
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="63.75">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1902,7 +1938,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -1917,18 +1953,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" ht="25.5">
+      <c r="A8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>39</v>
@@ -1936,16 +1972,19 @@
       <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>42</v>
@@ -1953,19 +1992,21 @@
       <c r="F9" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="63.75">
+      <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>47</v>
@@ -1973,19 +2014,21 @@
       <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="89.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>50</v>
@@ -1993,19 +2036,21 @@
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="63.75">
+      <c r="A12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>55</v>
@@ -2013,19 +2058,21 @@
       <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="89.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>59</v>
@@ -2033,19 +2080,21 @@
       <c r="F13" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="63.75">
+      <c r="A14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>63</v>
@@ -2053,17 +2102,19 @@
       <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="63.75">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>66</v>
@@ -2071,8 +2122,10 @@
       <c r="F15" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="76.5">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -2083,7 +2136,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>71</v>
@@ -2096,18 +2149,18 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8" ht="127.5">
+      <c r="A17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>76</v>
@@ -2115,19 +2168,21 @@
       <c r="F17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="127.5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>80</v>
@@ -2135,19 +2190,21 @@
       <c r="F18" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="38.25">
+      <c r="A19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>85</v>
@@ -2155,14 +2212,17 @@
       <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="38.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="4" t="s">
         <v>88</v>
       </c>
@@ -2172,8 +2232,13 @@
       <c r="F20" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="76.5">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
@@ -2183,8 +2248,13 @@
       <c r="F21" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
@@ -2194,8 +2264,13 @@
       <c r="F22" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="102">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="4" t="s">
         <v>97</v>
       </c>
@@ -2205,15 +2280,17 @@
       <c r="F23" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="38.25">
+      <c r="A24" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2225,12 +2302,15 @@
       <c r="F24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25">
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="76.5">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4" t="s">
         <v>106</v>
       </c>
@@ -2240,8 +2320,13 @@
       <c r="F25" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="89.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4" t="s">
         <v>109</v>
       </c>
@@ -2251,8 +2336,13 @@
       <c r="F26" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="63.75">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
         <v>112</v>
       </c>
@@ -2262,19 +2352,21 @@
       <c r="F27" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="89.25">
+      <c r="A28" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>117</v>
@@ -2282,14 +2374,17 @@
       <c r="F28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29">
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="51">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>119</v>
@@ -2297,19 +2392,21 @@
       <c r="F29" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.25">
+      <c r="A30" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D30" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -2317,14 +2414,17 @@
       <c r="F30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31">
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="25.5">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>126</v>
@@ -2332,10 +2432,15 @@
       <c r="F31" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="25.5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>128</v>
@@ -2343,10 +2448,15 @@
       <c r="F32" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="51">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>130</v>
@@ -2354,10 +2464,15 @@
       <c r="F33" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>132</v>
@@ -2365,10 +2480,15 @@
       <c r="F34" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="89.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>134</v>
@@ -2376,8 +2496,10 @@
       <c r="F35" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="38.25">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -2388,7 +2510,7 @@
         <v>138</v>
       </c>
       <c r="D36" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>139</v>
@@ -2403,7 +2525,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2413,7 +2535,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2423,7 +2545,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2433,7 +2555,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2443,7 +2565,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2453,7 +2575,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2463,7 +2585,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2473,7 +2595,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2483,7 +2605,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2493,7 +2615,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2503,7 +2625,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2513,7 +2635,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2523,7 +2645,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2533,7 +2655,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2543,7 +2665,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2553,7 +2675,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2563,7 +2685,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2573,7 +2695,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2583,7 +2705,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2593,7 +2715,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2603,7 +2725,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2613,7 +2735,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2623,7 +2745,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2633,7 +2755,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2643,7 +2765,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2653,7 +2775,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2663,7 +2785,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2673,7 +2795,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2683,7 +2805,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2693,7 +2815,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2703,7 +2825,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2713,7 +2835,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2723,7 +2845,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2733,7 +2855,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2743,7 +2865,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2753,7 +2875,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2763,7 +2885,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2773,7 +2895,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2783,7 +2905,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2793,7 +2915,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2803,7 +2925,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2813,7 +2935,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2823,7 +2945,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2833,7 +2955,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2843,7 +2965,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2853,7 +2975,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2863,7 +2985,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2873,7 +2995,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2883,7 +3005,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2893,7 +3015,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -2903,7 +3025,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2913,7 +3035,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -2923,7 +3045,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -2933,7 +3055,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2943,7 +3065,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -2953,7 +3075,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2963,7 +3085,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2973,7 +3095,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -2983,7 +3105,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -2993,7 +3115,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3003,7 +3125,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3013,7 +3135,7 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3023,7 +3145,7 @@
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3033,7 +3155,7 @@
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3043,7 +3165,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3053,7 +3175,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3063,7 +3185,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3073,7 +3195,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3083,7 +3205,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3093,7 +3215,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3103,7 +3225,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3113,7 +3235,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3123,7 +3245,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3133,7 +3255,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3143,7 +3265,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3153,7 +3275,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3163,7 +3285,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3173,7 +3295,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3183,7 +3305,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3193,7 +3315,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3203,7 +3325,7 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3213,7 +3335,7 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3223,7 +3345,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3233,7 +3355,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3243,7 +3365,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3253,7 +3375,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3263,7 +3385,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3273,7 +3395,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3283,7 +3405,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3293,7 +3415,7 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3303,7 +3425,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3313,7 +3435,7 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3323,7 +3445,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3333,7 +3455,7 @@
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -3343,7 +3465,7 @@
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3353,7 +3475,7 @@
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3363,7 +3485,7 @@
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -3373,7 +3495,7 @@
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -3383,7 +3505,7 @@
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -3393,7 +3515,7 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -3403,7 +3525,7 @@
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -3413,7 +3535,7 @@
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -3423,7 +3545,7 @@
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -3433,7 +3555,7 @@
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -3443,7 +3565,7 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -3453,7 +3575,7 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -3463,7 +3585,7 @@
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -3473,7 +3595,7 @@
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -3483,7 +3605,7 @@
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -3493,7 +3615,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -3503,7 +3625,7 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -3513,7 +3635,7 @@
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -3523,7 +3645,7 @@
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -3533,7 +3655,7 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -3543,7 +3665,7 @@
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -3553,7 +3675,7 @@
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -3563,7 +3685,7 @@
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -3573,7 +3695,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -3583,7 +3705,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -3593,7 +3715,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -3603,7 +3725,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -3613,7 +3735,7 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -3623,7 +3745,7 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -3633,7 +3755,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -3643,7 +3765,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:8" ht="15.75" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -3653,7 +3775,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:8" ht="15.75" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -3663,7 +3785,7 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:8" ht="15.75" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -3673,7 +3795,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:8" ht="15.75" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -3683,7 +3805,7 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:8" ht="15.75" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -3693,7 +3815,7 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:8" ht="15.75" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -3703,7 +3825,7 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:8" ht="15.75" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -3713,7 +3835,7 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:8" ht="15.75" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -3723,7 +3845,7 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:8" ht="15.75" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -3733,7 +3855,7 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:8" ht="15.75" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -3743,7 +3865,7 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:8" ht="15.75" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -3753,7 +3875,7 @@
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:8" ht="15.75" customHeight="1">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -3763,7 +3885,7 @@
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:8" ht="15.75" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -3773,7 +3895,7 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:8" ht="15.75" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -3783,7 +3905,7 @@
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:8" ht="15.75" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -3793,7 +3915,7 @@
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -3803,7 +3925,7 @@
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -3813,7 +3935,7 @@
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:8" ht="15.75" customHeight="1">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -3823,7 +3945,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:8" ht="15.75" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -3833,7 +3955,7 @@
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:8" ht="15.75" customHeight="1">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -3843,7 +3965,7 @@
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:8" ht="15.75" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -3853,7 +3975,7 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:8" ht="15.75" customHeight="1">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -3863,7 +3985,7 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:8" ht="15.75" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -3873,7 +3995,7 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:8" ht="15.75" customHeight="1">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -3883,7 +4005,7 @@
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:8" ht="15.75" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -3893,7 +4015,7 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:8" ht="15.75" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -3903,7 +4025,7 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:8" ht="15.75" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -3913,7 +4035,7 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:8" ht="15.75" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -3923,7 +4045,7 @@
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:8" ht="15.75" customHeight="1">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -3933,7 +4055,7 @@
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -3943,7 +4065,7 @@
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:8" ht="15.75" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -3953,7 +4075,7 @@
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:8" ht="15.75" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -3963,7 +4085,7 @@
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:8" ht="15.75" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -3973,7 +4095,7 @@
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:8" ht="15.75" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -3983,7 +4105,7 @@
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:8" ht="15.75" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -3993,7 +4115,7 @@
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -4003,7 +4125,7 @@
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -4013,7 +4135,7 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:8" ht="15.75" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -4023,7 +4145,7 @@
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:8" ht="15.75" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -4033,7 +4155,7 @@
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:8" ht="15.75" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -4043,7 +4165,7 @@
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:8" ht="15.75" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -4053,7 +4175,7 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:8" ht="15.75" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -4063,7 +4185,7 @@
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:8" ht="15.75" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -4073,7 +4195,7 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:8" ht="15.75" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -4083,7 +4205,7 @@
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:8" ht="15.75" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -4093,7 +4215,7 @@
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:8" ht="15.75" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -4103,7 +4225,7 @@
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:8" ht="15.75" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -4113,7 +4235,7 @@
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:8" ht="15.75" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -4123,7 +4245,7 @@
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:8" ht="15.75" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -4133,7 +4255,7 @@
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:8" ht="15.75" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -4143,7 +4265,7 @@
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:8" ht="15.75" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -4153,7 +4275,7 @@
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:8" ht="15.75" customHeight="1">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -4163,7 +4285,7 @@
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:8" ht="15.75" customHeight="1">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -4173,7 +4295,7 @@
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:8" ht="15.75" customHeight="1">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -4183,7 +4305,7 @@
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:8" ht="15.75" customHeight="1">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -4193,7 +4315,7 @@
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:8" ht="15.75" customHeight="1">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -4203,7 +4325,7 @@
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:8" ht="15.75" customHeight="1">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -4213,7 +4335,7 @@
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:8" ht="15.75" customHeight="1">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -4223,7 +4345,7 @@
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:8" ht="15.75" customHeight="1">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -4233,7 +4355,7 @@
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:8" ht="15.75" customHeight="1">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -4243,7 +4365,7 @@
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:8" ht="15.75" customHeight="1">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -4253,7 +4375,7 @@
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:8" ht="15.75" customHeight="1">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -4263,7 +4385,7 @@
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:8" ht="15.75" customHeight="1">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -4273,7 +4395,7 @@
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:8" ht="15.75" customHeight="1">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -4283,7 +4405,7 @@
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:8" ht="15.75" customHeight="1">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -4293,7 +4415,7 @@
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:8" ht="15.75" customHeight="1">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -4303,7 +4425,7 @@
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:8" ht="15.75" customHeight="1">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -4313,7 +4435,7 @@
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:8" ht="15.75" customHeight="1">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -4323,7 +4445,7 @@
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:8" ht="15.75" customHeight="1">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -4333,7 +4455,7 @@
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:8" ht="15.75" customHeight="1">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -4343,7 +4465,7 @@
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:8" ht="15.75" customHeight="1">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -4353,7 +4475,7 @@
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:8" ht="15.75" customHeight="1">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -4363,7 +4485,7 @@
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:8" ht="15.75" customHeight="1">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -4373,7 +4495,7 @@
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:8" ht="15.75" customHeight="1">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -4383,7 +4505,7 @@
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:8" ht="15.75" customHeight="1">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -4393,7 +4515,7 @@
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:8" ht="15.75" customHeight="1">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -4403,10 +4525,10 @@
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -5169,47 +5291,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:C35"/>
@@ -5220,35 +5301,74 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="34.13"/>
-    <col customWidth="1" min="4" max="4" width="26.0"/>
-    <col customWidth="1" min="5" max="5" width="16.5"/>
-    <col customWidth="1" min="6" max="6" width="12.0"/>
-    <col customWidth="1" min="7" max="26" width="11.0"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -5288,7 +5408,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" ht="91.5" customHeight="1">
+    <row r="2" spans="1:26" ht="91.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>148</v>
       </c>
@@ -5328,7 +5448,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" ht="91.5" customHeight="1">
+    <row r="3" spans="1:26" ht="91.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -5368,7 +5488,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" ht="77.25" customHeight="1">
+    <row r="4" spans="1:26" ht="77.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -5408,7 +5528,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" ht="76.5" customHeight="1">
+    <row r="5" spans="1:26" ht="76.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -5448,23 +5568,23 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" ht="23.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:26" ht="23.25" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="26" t="s">
         <v>167</v>
       </c>
       <c r="G6" s="7"/>
@@ -5488,7 +5608,13 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5510,7 +5636,13 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
+    <row r="8" spans="1:26" ht="18" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5532,13 +5664,17 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" ht="66.75" customHeight="1">
+    <row r="9" spans="1:26" ht="66.75" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
         <v>168</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5560,23 +5696,23 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" ht="28.5" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="26" t="s">
         <v>167</v>
       </c>
       <c r="G10" s="7"/>
@@ -5600,7 +5736,13 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
+    <row r="11" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -5622,13 +5764,17 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" ht="33.75" customHeight="1">
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="27" t="s">
         <v>51</v>
       </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5650,7 +5796,13 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" ht="26.25" customHeight="1">
+    <row r="13" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5672,7 +5824,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" ht="103.5" customHeight="1">
+    <row r="14" spans="1:26" ht="103.5" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>78</v>
       </c>
@@ -5712,23 +5864,23 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" ht="91.5" customHeight="1">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:26" ht="91.5" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="7"/>
@@ -5752,23 +5904,23 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" ht="59.25" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:26" ht="59.25" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="7"/>
@@ -5792,7 +5944,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5820,7 +5972,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5848,7 +6000,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5876,7 +6028,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5904,7 +6056,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5932,7 +6084,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5960,7 +6112,7 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5988,7 +6140,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -6016,7 +6168,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -6044,7 +6196,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -6072,7 +6224,7 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -6100,7 +6252,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6128,7 +6280,7 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6156,7 +6308,7 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -6184,7 +6336,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -6212,7 +6364,7 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -6240,7 +6392,7 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -6268,7 +6420,7 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -6296,7 +6448,7 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -6324,7 +6476,7 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6352,7 +6504,7 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -6380,7 +6532,7 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -6408,7 +6560,7 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -6436,7 +6588,7 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -6464,7 +6616,7 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -6492,7 +6644,7 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -6520,7 +6672,7 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -6548,7 +6700,7 @@
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -6576,7 +6728,7 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -6604,7 +6756,7 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -6632,7 +6784,7 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -6660,7 +6812,7 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -6688,7 +6840,7 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -6716,7 +6868,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -6744,7 +6896,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -6772,7 +6924,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -6800,7 +6952,7 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -6828,7 +6980,7 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -6856,7 +7008,7 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -6884,7 +7036,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -6912,7 +7064,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -6940,7 +7092,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -6968,7 +7120,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -6996,7 +7148,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -7024,7 +7176,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -7052,7 +7204,7 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -7080,7 +7232,7 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -7108,7 +7260,7 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -7136,7 +7288,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -7164,7 +7316,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -7192,7 +7344,7 @@
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -7220,7 +7372,7 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -7248,7 +7400,7 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -7276,7 +7428,7 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7304,7 +7456,7 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -7332,7 +7484,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -7360,7 +7512,7 @@
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7388,7 +7540,7 @@
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7416,7 +7568,7 @@
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7444,7 +7596,7 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7472,7 +7624,7 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7500,7 +7652,7 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7528,7 +7680,7 @@
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7556,7 +7708,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7584,7 +7736,7 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7612,7 +7764,7 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7640,7 +7792,7 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -7668,7 +7820,7 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -7696,7 +7848,7 @@
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7724,7 +7876,7 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7752,7 +7904,7 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7780,7 +7932,7 @@
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7808,7 +7960,7 @@
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7836,7 +7988,7 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7864,7 +8016,7 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7892,7 +8044,7 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7920,7 +8072,7 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7948,7 +8100,7 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7976,7 +8128,7 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -8004,7 +8156,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -8032,7 +8184,7 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -8060,7 +8212,7 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -8088,7 +8240,7 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -8116,7 +8268,7 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -8144,7 +8296,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -8172,7 +8324,7 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -8200,7 +8352,7 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -8228,7 +8380,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -8256,7 +8408,7 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -8284,7 +8436,7 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -8312,7 +8464,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8340,7 +8492,7 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -8368,7 +8520,7 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -8396,7 +8548,7 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -8424,7 +8576,7 @@
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -8452,7 +8604,7 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -8480,7 +8632,7 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -8508,7 +8660,7 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -8536,7 +8688,7 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -8564,7 +8716,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -8592,7 +8744,7 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -8620,7 +8772,7 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -8648,7 +8800,7 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -8676,7 +8828,7 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -8704,7 +8856,7 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -8732,7 +8884,7 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -8760,7 +8912,7 @@
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -8788,7 +8940,7 @@
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -8816,7 +8968,7 @@
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -8844,7 +8996,7 @@
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -8872,7 +9024,7 @@
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -8900,7 +9052,7 @@
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -8928,7 +9080,7 @@
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -8956,7 +9108,7 @@
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -8984,7 +9136,7 @@
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -9012,7 +9164,7 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -9040,7 +9192,7 @@
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -9068,7 +9220,7 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -9096,7 +9248,7 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -9124,7 +9276,7 @@
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -9152,7 +9304,7 @@
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -9180,7 +9332,7 @@
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -9208,7 +9360,7 @@
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -9236,7 +9388,7 @@
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -9264,7 +9416,7 @@
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -9292,7 +9444,7 @@
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -9320,7 +9472,7 @@
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -9348,7 +9500,7 @@
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -9376,7 +9528,7 @@
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -9404,7 +9556,7 @@
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -9432,7 +9584,7 @@
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -9460,7 +9612,7 @@
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -9488,7 +9640,7 @@
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -9516,7 +9668,7 @@
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -9544,7 +9696,7 @@
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -9572,7 +9724,7 @@
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -9600,7 +9752,7 @@
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -9628,7 +9780,7 @@
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -9656,7 +9808,7 @@
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -9684,7 +9836,7 @@
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -9712,7 +9864,7 @@
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -9740,7 +9892,7 @@
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -9768,7 +9920,7 @@
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -9796,7 +9948,7 @@
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -9824,7 +9976,7 @@
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -9852,7 +10004,7 @@
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -9880,7 +10032,7 @@
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -9908,7 +10060,7 @@
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -9936,7 +10088,7 @@
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -9964,7 +10116,7 @@
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -9992,7 +10144,7 @@
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -10020,7 +10172,7 @@
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -10048,7 +10200,7 @@
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -10076,7 +10228,7 @@
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -10104,7 +10256,7 @@
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -10132,7 +10284,7 @@
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -10160,7 +10312,7 @@
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -10188,7 +10340,7 @@
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -10216,7 +10368,7 @@
       <c r="Y174" s="7"/>
       <c r="Z174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -10244,7 +10396,7 @@
       <c r="Y175" s="7"/>
       <c r="Z175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -10272,7 +10424,7 @@
       <c r="Y176" s="7"/>
       <c r="Z176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -10300,7 +10452,7 @@
       <c r="Y177" s="7"/>
       <c r="Z177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -10328,7 +10480,7 @@
       <c r="Y178" s="7"/>
       <c r="Z178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -10356,7 +10508,7 @@
       <c r="Y179" s="7"/>
       <c r="Z179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -10384,7 +10536,7 @@
       <c r="Y180" s="7"/>
       <c r="Z180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -10412,7 +10564,7 @@
       <c r="Y181" s="7"/>
       <c r="Z181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -10440,7 +10592,7 @@
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -10468,7 +10620,7 @@
       <c r="Y183" s="7"/>
       <c r="Z183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -10496,7 +10648,7 @@
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -10524,7 +10676,7 @@
       <c r="Y185" s="7"/>
       <c r="Z185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -10552,7 +10704,7 @@
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -10580,7 +10732,7 @@
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -10608,7 +10760,7 @@
       <c r="Y188" s="7"/>
       <c r="Z188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -10636,7 +10788,7 @@
       <c r="Y189" s="7"/>
       <c r="Z189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -10664,7 +10816,7 @@
       <c r="Y190" s="7"/>
       <c r="Z190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -10692,7 +10844,7 @@
       <c r="Y191" s="7"/>
       <c r="Z191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -10720,7 +10872,7 @@
       <c r="Y192" s="7"/>
       <c r="Z192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -10748,7 +10900,7 @@
       <c r="Y193" s="7"/>
       <c r="Z193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -10776,7 +10928,7 @@
       <c r="Y194" s="7"/>
       <c r="Z194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -10804,7 +10956,7 @@
       <c r="Y195" s="7"/>
       <c r="Z195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -10832,7 +10984,7 @@
       <c r="Y196" s="7"/>
       <c r="Z196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -10860,7 +11012,7 @@
       <c r="Y197" s="7"/>
       <c r="Z197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -10888,7 +11040,7 @@
       <c r="Y198" s="7"/>
       <c r="Z198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -10916,7 +11068,7 @@
       <c r="Y199" s="7"/>
       <c r="Z199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -10944,7 +11096,7 @@
       <c r="Y200" s="7"/>
       <c r="Z200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -10972,7 +11124,7 @@
       <c r="Y201" s="7"/>
       <c r="Z201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -11000,7 +11152,7 @@
       <c r="Y202" s="7"/>
       <c r="Z202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -11028,7 +11180,7 @@
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -11056,7 +11208,7 @@
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -11084,7 +11236,7 @@
       <c r="Y205" s="7"/>
       <c r="Z205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -11112,7 +11264,7 @@
       <c r="Y206" s="7"/>
       <c r="Z206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -11140,7 +11292,7 @@
       <c r="Y207" s="7"/>
       <c r="Z207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -11168,7 +11320,7 @@
       <c r="Y208" s="7"/>
       <c r="Z208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -11196,7 +11348,7 @@
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -11224,7 +11376,7 @@
       <c r="Y210" s="7"/>
       <c r="Z210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -11252,7 +11404,7 @@
       <c r="Y211" s="7"/>
       <c r="Z211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -11280,7 +11432,7 @@
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -11308,7 +11460,7 @@
       <c r="Y213" s="7"/>
       <c r="Z213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -11336,7 +11488,7 @@
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -11364,7 +11516,7 @@
       <c r="Y215" s="7"/>
       <c r="Z215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -11392,7 +11544,7 @@
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -11420,7 +11572,7 @@
       <c r="Y217" s="7"/>
       <c r="Z217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -11448,7 +11600,7 @@
       <c r="Y218" s="7"/>
       <c r="Z218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -11476,7 +11628,7 @@
       <c r="Y219" s="7"/>
       <c r="Z219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -11504,7 +11656,7 @@
       <c r="Y220" s="7"/>
       <c r="Z220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -11532,11 +11684,11 @@
       <c r="Y221" s="7"/>
       <c r="Z221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="D222" s="7"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -12316,12 +12468,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="D6:D8"/>
@@ -12330,10 +12476,14 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>